--- a/data/trans_dic/P41E_2023_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
